--- a/tmp_leads_data.xlsx
+++ b/tmp_leads_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\BST\BST_projects\Hihomie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130B5C7-CAD1-4106-AA76-F75758AD13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4EE088-4E38-4625-99A8-925CA05ED47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>website</t>
   </si>
   <si>
-    <t>Descalificada</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Pending Documentation</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -601,7 +601,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -727,141 +727,141 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
         <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>56</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_leads_data.xlsx
+++ b/tmp_leads_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\BST\BST_projects\Hihomie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4EE088-4E38-4625-99A8-925CA05ED47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B8A30-DC09-4B4E-8271-C3E2DBEE237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>status_name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Test100</t>
   </si>
   <si>
     <t>Señor.</t>
@@ -598,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -677,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -727,141 +724,274 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" t="s">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_leads_data.xlsx
+++ b/tmp_leads_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\BST\BST_projects\Hihomie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B8A30-DC09-4B4E-8271-C3E2DBEE237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE585A4-84B8-43C7-B1B1-3A01BAAF6CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,12 +291,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -598,7 +609,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +648,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
